--- a/documents/Risk-Assessment.xlsx
+++ b/documents/Risk-Assessment.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t xml:space="preserve">VM instance, Jenkins VM or SQL instance could go down.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pay the bills.</t>
   </si>
   <si>
     <t xml:space="preserve">Ratings</t>
@@ -116,14 +119,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot; $&quot;* #,##0.00\ ;&quot;-$&quot;* #,##0.00\ ;&quot; $&quot;* \-#\ ;\ @\ "/>
-    <numFmt numFmtId="166" formatCode="&quot; $&quot;* #,##0\ ;&quot;-$&quot;* #,##0\ ;&quot; $&quot;* \-#\ ;\ @\ "/>
+    <numFmt numFmtId="165" formatCode="&quot; $&quot;* #,##0.00\ ;&quot;-$&quot;* #,##0.00\ ;&quot; $&quot;* \-#\ ;@\ "/>
+    <numFmt numFmtId="166" formatCode="&quot; $&quot;* #,##0\ ;&quot;-$&quot;* #,##0\ ;&quot; $&quot;* \-#\ ;@\ "/>
   </numFmts>
   <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -145,29 +149,34 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -175,17 +184,20 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -193,6 +205,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -201,6 +214,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -283,7 +297,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -382,10 +396,6 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -415,18 +425,18 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="25.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="32.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="32.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="33.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -527,9 +537,15 @@
       <c r="D6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="21"/>
+      <c r="E6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22"/>
@@ -568,7 +584,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19"/>
@@ -576,7 +592,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,27 +602,27 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="26" t="s">
-        <v>22</v>
+      <c r="B8" s="25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="26" t="s">
-        <v>23</v>
+      <c r="B9" s="25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,27 +632,27 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="26" t="s">
-        <v>25</v>
+      <c r="B13" s="25" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="26" t="s">
-        <v>26</v>
+      <c r="B16" s="25" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
